--- a/document/Project Plan/project_plan.xlsx
+++ b/document/Project Plan/project_plan.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Project Plan" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -85,18 +82,6 @@
     <t>Backend Task 6 : Search Service</t>
   </si>
   <si>
-    <t>Frontend : Movie Home</t>
-  </si>
-  <si>
-    <t>Frontend : Sign In, Up, Forgot Panel</t>
-  </si>
-  <si>
-    <t>Frontend : Movie Detail, Rating and Comment</t>
-  </si>
-  <si>
-    <t>Frontend : Account Management Master Page</t>
-  </si>
-  <si>
     <t>Backend Task 3 : SignUp, SignIn and Forgot</t>
   </si>
   <si>
@@ -113,6 +98,18 @@
   </si>
   <si>
     <t>Implement and Deploy UAT</t>
+  </si>
+  <si>
+    <t>Frontend Task 1 : Movie Home</t>
+  </si>
+  <si>
+    <t>Frontend Task 2 : Sign In, Up, Forgot Panel</t>
+  </si>
+  <si>
+    <t>Frontend Task 3 : Movie Detail, Rating and Comment</t>
+  </si>
+  <si>
+    <t>Frontend task 4 : Account Management Master Page</t>
   </si>
 </sst>
 </file>
@@ -259,14 +256,14 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,16 +373,16 @@
                   <c:v>Backend Task 6 : Search Service</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Frontend : Movie Home</c:v>
+                  <c:v>Frontend Task 1 : Movie Home</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Frontend : Sign In, Up, Forgot Panel</c:v>
+                  <c:v>Frontend Task 2 : Sign In, Up, Forgot Panel</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Frontend : Movie Detail, Rating and Comment</c:v>
+                  <c:v>Frontend Task 3 : Movie Detail, Rating and Comment</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Frontend : Account Management Master Page</c:v>
+                  <c:v>Frontend task 4 : Account Management Master Page</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>SmokeTest : Movie Home</c:v>
@@ -886,16 +883,16 @@
                   <c:v>Backend Task 6 : Search Service</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Frontend : Movie Home</c:v>
+                  <c:v>Frontend Task 1 : Movie Home</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Frontend : Sign In, Up, Forgot Panel</c:v>
+                  <c:v>Frontend Task 2 : Sign In, Up, Forgot Panel</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Frontend : Movie Detail, Rating and Comment</c:v>
+                  <c:v>Frontend Task 3 : Movie Detail, Rating and Comment</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Frontend : Account Management Master Page</c:v>
+                  <c:v>Frontend task 4 : Account Management Master Page</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>SmokeTest : Movie Home</c:v>
@@ -998,11 +995,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="312428464"/>
-        <c:axId val="312430144"/>
+        <c:axId val="443421104"/>
+        <c:axId val="443422784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312428464"/>
+        <c:axId val="443421104"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1045,7 +1042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312430144"/>
+        <c:crossAx val="443422784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1053,7 +1050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312430144"/>
+        <c:axId val="443422784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42948"/>
@@ -1105,7 +1102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312428464"/>
+        <c:crossAx val="443421104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,130 +1728,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Basic Manual Gantt Chart"/>
-      <sheetName val="Gantt Chart - Manual End Date"/>
-      <sheetName val="Gantt Chart - Manual Duration"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>asdsad</v>
-          </cell>
-          <cell r="C5">
-            <v>42941</v>
-          </cell>
-          <cell r="E5">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Task Two</v>
-          </cell>
-          <cell r="C6">
-            <v>42941</v>
-          </cell>
-          <cell r="E6">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Task Three</v>
-          </cell>
-          <cell r="C7">
-            <v>42941</v>
-          </cell>
-          <cell r="E7">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Task Four</v>
-          </cell>
-          <cell r="C8">
-            <v>42941</v>
-          </cell>
-          <cell r="E8">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Task Five</v>
-          </cell>
-          <cell r="C9">
-            <v>42941</v>
-          </cell>
-          <cell r="E9">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Task Six</v>
-          </cell>
-          <cell r="C10">
-            <v>42941</v>
-          </cell>
-          <cell r="E10">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2149,14 +2022,14 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
@@ -2239,355 +2112,355 @@
         <f>C5</f>
         <v>42948</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>42948</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>IF(ISBLANK(E5),"",E5+C5)-1</f>
         <v>42981</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>34</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>42979</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f>IF(ISBLANK(E6),"",E6+C6)-1</f>
         <v>43008</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>30</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>43009</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f>IF(ISBLANK(E7),"",E7+C7)-1</f>
         <v>43068</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>60</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>43040</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f t="shared" ref="D8:D25" si="0">IF(ISBLANK(E8),"",E8+C8)-1</f>
         <v>43054</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>15</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>43055</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>43174</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>120</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>43055</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>43084</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>30</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>43085</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>43096</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>43101</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>43112</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>12</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
         <v>43113</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>43124</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>12</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>43125</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>43136</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>12</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>43137</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>43148</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>12</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>43149</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>43160</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>12</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8">
         <v>43161</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>43162</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>2</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8">
         <v>43163</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>43164</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>2</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
         <v>43165</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>43166</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>2</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8">
         <v>43167</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>43168</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>2</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8">
         <v>43169</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>43170</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>2</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="8">
         <v>43169</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>43170</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>2</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8">
         <v>43169</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>43170</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>2</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8">
         <v>43169</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>43188</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>20</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8">
         <v>43189</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>43200</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>12</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="28" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -2621,12 +2494,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="J4:Q4"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/document/Project Plan/project_plan.xlsx
+++ b/document/Project Plan/project_plan.xlsx
@@ -262,6 +262,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,9 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -995,11 +995,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="443421104"/>
-        <c:axId val="443422784"/>
+        <c:axId val="167998832"/>
+        <c:axId val="167996592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="443421104"/>
+        <c:axId val="167998832"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1042,7 +1042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443422784"/>
+        <c:crossAx val="167996592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,7 +1050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443422784"/>
+        <c:axId val="167996592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42948"/>
@@ -1102,7 +1102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443421104"/>
+        <c:crossAx val="167998832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2022,8 +2022,10 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2048,12 +2050,12 @@
   <sheetData>
     <row r="1" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2112,16 +2114,16 @@
         <f>C5</f>
         <v>42948</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -2463,34 +2465,34 @@
       <c r="G28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="2:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
